--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efnb2-Epha3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efnb2-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.899643</v>
+        <v>36.94436433333333</v>
       </c>
       <c r="H2">
-        <v>110.698929</v>
+        <v>110.833093</v>
       </c>
       <c r="I2">
-        <v>0.7238945645409353</v>
+        <v>0.8328964975864823</v>
       </c>
       <c r="J2">
-        <v>0.7238945645409354</v>
+        <v>0.8328964975864824</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.003058333333333333</v>
+        <v>26.097779</v>
       </c>
       <c r="N2">
-        <v>0.009175000000000001</v>
+        <v>78.29333700000001</v>
       </c>
       <c r="O2">
-        <v>0.0001134234803787887</v>
+        <v>0.9922055808976035</v>
       </c>
       <c r="P2">
-        <v>0.0001134234803787887</v>
+        <v>0.9922055808976036</v>
       </c>
       <c r="Q2">
-        <v>0.112851408175</v>
+        <v>964.1658556668158</v>
       </c>
       <c r="R2">
-        <v>1.015662673575</v>
+        <v>8677.492701001342</v>
       </c>
       <c r="S2">
-        <v>8.210664093752056E-05</v>
+        <v>0.8264045532153751</v>
       </c>
       <c r="T2">
-        <v>8.210664093752058E-05</v>
+        <v>0.8264045532153753</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.899643</v>
+        <v>36.94436433333333</v>
       </c>
       <c r="H3">
-        <v>110.698929</v>
+        <v>110.833093</v>
       </c>
       <c r="I3">
-        <v>0.7238945645409353</v>
+        <v>0.8328964975864823</v>
       </c>
       <c r="J3">
-        <v>0.7238945645409354</v>
+        <v>0.8328964975864824</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,33 +614,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>26.097779</v>
+        <v>0.205015</v>
       </c>
       <c r="N3">
-        <v>78.29333699999999</v>
+        <v>0.6150450000000001</v>
       </c>
       <c r="O3">
-        <v>0.9678804112271815</v>
+        <v>0.007794419102396499</v>
       </c>
       <c r="P3">
-        <v>0.9678804112271815</v>
+        <v>0.007794419102396499</v>
       </c>
       <c r="Q3">
-        <v>962.9987281928969</v>
+        <v>7.574148853798334</v>
       </c>
       <c r="R3">
-        <v>8666.988553736071</v>
+        <v>68.16733968418501</v>
       </c>
       <c r="S3">
-        <v>0.7006433688130019</v>
+        <v>0.006491944371107217</v>
       </c>
       <c r="T3">
-        <v>0.700643368813002</v>
+        <v>0.006491944371107218</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>36.899643</v>
+        <v>3.374819</v>
       </c>
       <c r="H4">
-        <v>110.698929</v>
+        <v>10.124457</v>
       </c>
       <c r="I4">
-        <v>0.7238945645409353</v>
+        <v>0.07608399754092349</v>
       </c>
       <c r="J4">
-        <v>0.7238945645409354</v>
+        <v>0.07608399754092349</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8630093333333333</v>
+        <v>26.097779</v>
       </c>
       <c r="N4">
-        <v>2.589028</v>
+        <v>78.29333700000001</v>
       </c>
       <c r="O4">
-        <v>0.03200616529243973</v>
+        <v>0.9922055808976035</v>
       </c>
       <c r="P4">
-        <v>0.03200616529243973</v>
+        <v>0.9922055808976036</v>
       </c>
       <c r="Q4">
-        <v>31.844736305668</v>
+        <v>88.075280427001</v>
       </c>
       <c r="R4">
-        <v>286.602626751012</v>
+        <v>792.677523843009</v>
       </c>
       <c r="S4">
-        <v>0.02316908908699585</v>
+        <v>0.07549096697710382</v>
       </c>
       <c r="T4">
-        <v>0.02316908908699586</v>
+        <v>0.07549096697710383</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>10.124457</v>
       </c>
       <c r="I5">
-        <v>0.06620695843614191</v>
+        <v>0.07608399754092349</v>
       </c>
       <c r="J5">
-        <v>0.06620695843614191</v>
+        <v>0.07608399754092349</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.003058333333333333</v>
+        <v>0.205015</v>
       </c>
       <c r="N5">
-        <v>0.009175000000000001</v>
+        <v>0.6150450000000001</v>
       </c>
       <c r="O5">
-        <v>0.0001134234803787887</v>
+        <v>0.007794419102396499</v>
       </c>
       <c r="P5">
-        <v>0.0001134234803787887</v>
+        <v>0.007794419102396499</v>
       </c>
       <c r="Q5">
-        <v>0.01032132144166667</v>
+        <v>0.6918885172850001</v>
       </c>
       <c r="R5">
-        <v>0.092891892975</v>
+        <v>6.226996655565</v>
       </c>
       <c r="S5">
-        <v>7.509423651121021E-06</v>
+        <v>0.0005930305638196622</v>
       </c>
       <c r="T5">
-        <v>7.509423651121022E-06</v>
+        <v>0.0005930305638196622</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.374819</v>
+        <v>4.037305666666668</v>
       </c>
       <c r="H6">
-        <v>10.124457</v>
+        <v>12.111917</v>
       </c>
       <c r="I6">
-        <v>0.06620695843614191</v>
+        <v>0.09101950487259411</v>
       </c>
       <c r="J6">
-        <v>0.06620695843614191</v>
+        <v>0.09101950487259411</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,30 +803,30 @@
         <v>26.097779</v>
       </c>
       <c r="N6">
-        <v>78.29333699999999</v>
+        <v>78.29333700000001</v>
       </c>
       <c r="O6">
-        <v>0.9678804112271815</v>
+        <v>0.9922055808976035</v>
       </c>
       <c r="P6">
-        <v>0.9678804112271815</v>
+        <v>0.9922055808976036</v>
       </c>
       <c r="Q6">
-        <v>88.075280427001</v>
+        <v>105.3647110441144</v>
       </c>
       <c r="R6">
-        <v>792.6775238430089</v>
+        <v>948.2823993970293</v>
       </c>
       <c r="S6">
-        <v>0.06408041815727394</v>
+        <v>0.09031006070512448</v>
       </c>
       <c r="T6">
-        <v>0.06408041815727394</v>
+        <v>0.0903100607051245</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,232 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.374819</v>
+        <v>4.037305666666668</v>
       </c>
       <c r="H7">
-        <v>10.124457</v>
+        <v>12.111917</v>
       </c>
       <c r="I7">
-        <v>0.06620695843614191</v>
+        <v>0.09101950487259411</v>
       </c>
       <c r="J7">
-        <v>0.06620695843614191</v>
+        <v>0.09101950487259411</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8630093333333333</v>
+        <v>0.205015</v>
       </c>
       <c r="N7">
-        <v>2.589028</v>
+        <v>0.6150450000000001</v>
       </c>
       <c r="O7">
-        <v>0.03200616529243973</v>
+        <v>0.007794419102396499</v>
       </c>
       <c r="P7">
-        <v>0.03200616529243973</v>
+        <v>0.007794419102396499</v>
       </c>
       <c r="Q7">
-        <v>2.912500295310667</v>
+        <v>0.827708221251667</v>
       </c>
       <c r="R7">
-        <v>26.212502657796</v>
+        <v>7.449373991265002</v>
       </c>
       <c r="S7">
-        <v>0.002119030855216845</v>
+        <v>0.0007094441674696187</v>
       </c>
       <c r="T7">
-        <v>0.002119030855216845</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>10.699319</v>
-      </c>
-      <c r="H8">
-        <v>32.09795699999999</v>
-      </c>
-      <c r="I8">
-        <v>0.2098984770229228</v>
-      </c>
-      <c r="J8">
-        <v>0.2098984770229228</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.003058333333333333</v>
-      </c>
-      <c r="N8">
-        <v>0.009175000000000001</v>
-      </c>
-      <c r="O8">
-        <v>0.0001134234803787887</v>
-      </c>
-      <c r="P8">
-        <v>0.0001134234803787887</v>
-      </c>
-      <c r="Q8">
-        <v>0.03272208394166666</v>
-      </c>
-      <c r="R8">
-        <v>0.294498755475</v>
-      </c>
-      <c r="S8">
-        <v>2.380741579014712E-05</v>
-      </c>
-      <c r="T8">
-        <v>2.380741579014712E-05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>10.699319</v>
-      </c>
-      <c r="H9">
-        <v>32.09795699999999</v>
-      </c>
-      <c r="I9">
-        <v>0.2098984770229228</v>
-      </c>
-      <c r="J9">
-        <v>0.2098984770229228</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>26.097779</v>
-      </c>
-      <c r="N9">
-        <v>78.29333699999999</v>
-      </c>
-      <c r="O9">
-        <v>0.9678804112271815</v>
-      </c>
-      <c r="P9">
-        <v>0.9678804112271815</v>
-      </c>
-      <c r="Q9">
-        <v>279.2284627125009</v>
-      </c>
-      <c r="R9">
-        <v>2513.056164412508</v>
-      </c>
-      <c r="S9">
-        <v>0.2031566242569056</v>
-      </c>
-      <c r="T9">
-        <v>0.2031566242569056</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>10.699319</v>
-      </c>
-      <c r="H10">
-        <v>32.09795699999999</v>
-      </c>
-      <c r="I10">
-        <v>0.2098984770229228</v>
-      </c>
-      <c r="J10">
-        <v>0.2098984770229228</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.8630093333333333</v>
-      </c>
-      <c r="N10">
-        <v>2.589028</v>
-      </c>
-      <c r="O10">
-        <v>0.03200616529243973</v>
-      </c>
-      <c r="P10">
-        <v>0.03200616529243973</v>
-      </c>
-      <c r="Q10">
-        <v>9.233612157310663</v>
-      </c>
-      <c r="R10">
-        <v>83.10250941579598</v>
-      </c>
-      <c r="S10">
-        <v>0.006718045350227029</v>
-      </c>
-      <c r="T10">
-        <v>0.006718045350227029</v>
+        <v>0.0007094441674696187</v>
       </c>
     </row>
   </sheetData>
